--- a/oracle/DB 프로젝트/결석처리 데이터.xlsx
+++ b/oracle/DB 프로젝트/결석처리 데이터.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\class\code\oracle\DB 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d54015126b760c6/class/code/oracle/DB 프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_967666346292CBE18FFF1D114BF6CB9B4CF1E5C3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{36BFB176-2B12-476C-AD30-40017741E8D0}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9676663407CA4EE9EFFE1D114B6FDB9E51A7E411" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{01AF27A2-206D-49A9-8E84-8A3D9CA08E14}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -90,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -311,15 +312,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -353,7 +354,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>721</v>
@@ -470,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -530,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>730</v>
@@ -587,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -610,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -664,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -684,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -693,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>738</v>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -824,13 +825,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -847,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -870,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -924,10 +925,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -950,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>751</v>
@@ -970,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -987,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>753</v>
@@ -1010,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1030,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1130,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -1167,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -1190,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1270,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -1370,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1407,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
         <v>774</v>
@@ -1424,7 +1425,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -1550,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -1627,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1670,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -1690,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -1707,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -1827,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -2004,7 +2005,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -2084,7 +2085,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -2150,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -2170,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -2353,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1">
         <v>821</v>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -2570,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -2593,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" s="1">
         <v>833</v>
@@ -2707,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2750,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="1">
         <v>841</v>
@@ -2764,7 +2765,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
         <v>0</v>
@@ -2833,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="1">
         <v>845</v>
@@ -2844,7 +2845,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1">
         <v>0</v>
@@ -2947,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -2973,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="1">
         <v>852</v>
@@ -3050,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
@@ -3104,7 +3105,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="1">
         <v>0</v>
@@ -3247,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
@@ -3424,16 +3425,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1">
         <v>0</v>
       </c>
       <c r="D156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" s="1">
         <v>875</v>
@@ -3447,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="C157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" s="1">
         <v>0</v>
       </c>
       <c r="E157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" s="1">
         <v>876</v>
@@ -3590,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -3610,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
@@ -3653,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" s="1">
         <v>886</v>
@@ -3724,7 +3725,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -3767,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="C173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="1">
         <v>0</v>
@@ -3870,10 +3871,10 @@
         <v>2</v>
       </c>
       <c r="D178" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" s="1">
         <v>897</v>
@@ -3924,20 +3925,26 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
         <v>2</v>
-      </c>
-      <c r="C181" s="1">
-        <v>0</v>
-      </c>
-      <c r="D181" s="1">
-        <v>2</v>
-      </c>
-      <c r="E181" s="1">
-        <v>1</v>
       </c>
       <c r="F181" s="1">
         <v>900</v>
       </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
